--- a/500all/speech_level/speeches_CHRG-114hhrg20148.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20148.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,25 +52,16 @@
     <t>400047</t>
   </si>
   <si>
-    <t>Robert A. Brady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you. Thank you, Madam Chair. And thank you for holding this markup today.    Rather than speak to each of the resolutions individually, I will submit longer comments for the record and just make a few comments here.    I support these four resolutions. The updates to our handbooks and committee guides are long overdue. Some of the updates we are making here sure should have been made 10 years ago, so it is good that we are doing this today.    I appreciate your working with my staff on these proposals. We have bipartisan agreement on all of them, and I will be supporting all of them. We approached this process wanting to make our House work better, and I think we did that. Commonsense updates and some basic reforms will hopefully result in less work in the administrating of our offices, and some of these proposals could actually save some Members money.    I also support the ECMO proposal, and I am glad we consulted with Employment Counsel on the final draft. I would specifically like to thank Gloria Lett and Ann Rogers of the Clerk's Office for their help.    This proposal makes things easier for these Member organizations as we implement these new regulations. I hope that we continue working together to resolve any unexpected issues. I look forward to continuing to work with you, my friend from Michigan, and urge my colleagues to support the resolutions before us today. Thank you.    The Chairman. I thank the gentleman very much.    Are there any other Members that wish to have an opening statement?    The chair recognizes Mr. Harper from Mississippi.</t>
   </si>
   <si>
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Chairman Miller.    I would like to commend you and Ranking Member Brady on the strong show of bipartisanship represented by the handbooks which we are considering today. The update of these regulations is overdue, and there is a reason for that. Finding consensus on a group of regulations that affect the operations of over 435 Member offices, all of the standing committees, and several Member organizations is no easy task.    I want to thank the staffs on both sides, majority and minority, for their commitment and tenacity in seeing this task through. I know you spent countless hours on probably countless versions of these regulations, and I want each of you to know that we appreciate your efforts.    Most Members will probably never see these regulations and would not likely read them if they did perhaps, but their daily activities are governed by them, and it was important to get them right. So I thank everyone involved in this and the staffs.    And I yield back. Thank you.    The Chairman. I thank the gentleman for his comments.    Any other Members wish to make an opening statement?    The gentleman from Chicago--excuse me, Illinois, not Chicago.</t>
   </si>
   <si>
     <t>412536</t>
-  </si>
-  <si>
-    <t>Rodney Davis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Those are fighting words where I come from, Madam Chairwoman.    Less of an opening statement, but more of a comment, because I know this process is going to be very quick today. I want to thank you, the ranking member, and all the members of this committee, and especially the staff, for working so hard to do things to address some issues, as the ranking member said, should have been addressed, could have been addressed even years ago.    Simple changes, like allowing Members to share district offices, can really save taxpayer dollars. This is a great step forward. The committee, both sides, the staff worked very, very hard to address issues that are very, very important to staffers not only here in Washington, but district staffers, you know, where I used to work. And the clarifications truly do help them do a better job on behalf of their Member and on behalf of this institution.    So thank you all again for your hard work. I truly appreciate it.    The Chairman. I thank the gentleman from Illinois for his comments.    Any other Member have any comment?    Okay. I will now call before the Committee our first agenda item, which is Committee Resolution 114, a Committee Resolution updating the Guide to Outfitting and Maintaining an Office of the U.S. House of Representatives. Without objection, the first reading of the resolution is dispensed with and the resolution is considered read and open for amendment at any point.</t>
@@ -472,11 +463,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,13 +485,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,13 +509,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20148.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20148.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,16 +55,34 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you. Thank you, Madam Chair. And thank you for holding this markup today.    Rather than speak to each of the resolutions individually, I will submit longer comments for the record and just make a few comments here.    I support these four resolutions. The updates to our handbooks and committee guides are long overdue. Some of the updates we are making here sure should have been made 10 years ago, so it is good that we are doing this today.    I appreciate your working with my staff on these proposals. We have bipartisan agreement on all of them, and I will be supporting all of them. We approached this process wanting to make our House work better, and I think we did that. Commonsense updates and some basic reforms will hopefully result in less work in the administrating of our offices, and some of these proposals could actually save some Members money.    I also support the ECMO proposal, and I am glad we consulted with Employment Counsel on the final draft. I would specifically like to thank Gloria Lett and Ann Rogers of the Clerk's Office for their help.    This proposal makes things easier for these Member organizations as we implement these new regulations. I hope that we continue working together to resolve any unexpected issues. I look forward to continuing to work with you, my friend from Michigan, and urge my colleagues to support the resolutions before us today. Thank you.    The Chairman. I thank the gentleman very much.    Are there any other Members that wish to have an opening statement?    The chair recognizes Mr. Harper from Mississippi.</t>
   </si>
   <si>
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Chairman Miller.    I would like to commend you and Ranking Member Brady on the strong show of bipartisanship represented by the handbooks which we are considering today. The update of these regulations is overdue, and there is a reason for that. Finding consensus on a group of regulations that affect the operations of over 435 Member offices, all of the standing committees, and several Member organizations is no easy task.    I want to thank the staffs on both sides, majority and minority, for their commitment and tenacity in seeing this task through. I know you spent countless hours on probably countless versions of these regulations, and I want each of you to know that we appreciate your efforts.    Most Members will probably never see these regulations and would not likely read them if they did perhaps, but their daily activities are governed by them, and it was important to get them right. So I thank everyone involved in this and the staffs.    And I yield back. Thank you.    The Chairman. I thank the gentleman for his comments.    Any other Members wish to make an opening statement?    The gentleman from Chicago--excuse me, Illinois, not Chicago.</t>
   </si>
   <si>
     <t>412536</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davis. Those are fighting words where I come from, Madam Chairwoman.    Less of an opening statement, but more of a comment, because I know this process is going to be very quick today. I want to thank you, the ranking member, and all the members of this committee, and especially the staff, for working so hard to do things to address some issues, as the ranking member said, should have been addressed, could have been addressed even years ago.    Simple changes, like allowing Members to share district offices, can really save taxpayer dollars. This is a great step forward. The committee, both sides, the staff worked very, very hard to address issues that are very, very important to staffers not only here in Washington, but district staffers, you know, where I used to work. And the clarifications truly do help them do a better job on behalf of their Member and on behalf of this institution.    So thank you all again for your hard work. I truly appreciate it.    The Chairman. I thank the gentleman from Illinois for his comments.    Any other Member have any comment?    Okay. I will now call before the Committee our first agenda item, which is Committee Resolution 114, a Committee Resolution updating the Guide to Outfitting and Maintaining an Office of the U.S. House of Representatives. Without objection, the first reading of the resolution is dispensed with and the resolution is considered read and open for amendment at any point.</t>
@@ -413,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,77 +464,95 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20148.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20148.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brady</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412280</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Harper</t>
@@ -434,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,92 +476,104 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
